--- a/Assets/Resources/DataTable.xlsx
+++ b/Assets/Resources/DataTable.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11700" tabRatio="500" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11700" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="MonsterDataTable" sheetId="1" r:id="rId4"/>
@@ -15,30 +15,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
-  <x:si>
-    <x:t>Hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SkillAttackRange</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SpawnTime </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">AttackRate </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">MaxMonsterCount </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">MaxHp </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">AttackPower </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">AttackRange </x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+  <x:si>
+    <x:t xml:space="preserve">MaxMonsterCount::int </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SpawnTime::float </x:t>
+  </x:si>
+  <x:si>
+    <x:t>AttackRate::float</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">AttackPower::int </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hp::float</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MaxHp::float</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GetExp::int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AttackRange::float</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">AttackRange::float </x:t>
+  </x:si>
+  <x:si>
+    <x:t>SkillAttackRange::float</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RequireExp4LvUp::int</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">AttackRate::float </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -166,10 +178,23 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="6">
     <x:cellStyle xfId="15" builtinId="5" iLevel="0"/>
@@ -185,6 +210,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -267,6 +293,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -301,6 +328,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -345,6 +373,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -388,6 +417,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -472,6 +502,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -492,6 +523,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -522,6 +554,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -829,60 +862,67 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:F2"/>
+  <x:dimension ref="A1:G2"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:F2"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="180" zoomScaleNormal="180" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C10" activeCellId="0" sqref="C10:C10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.8984375" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="14.9609375" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="6.63671875" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="10.57421875" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="9.3359375" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="10.6875" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="14.9375" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="13.94140625" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="13.6875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="9.37890625" style="1" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
-      <x:c r="A1" t="s">
+    <x:row r="1" spans="1:7">
+      <x:c r="A1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
+      <x:c r="F1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="A2" s="1">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2">
+      <x:c r="B2" s="1">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B2">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2">
+      <x:c r="C2" s="1">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="D2">
+      <x:c r="D2" s="1">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E2">
+      <x:c r="E2" s="1">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F2">
+      <x:c r="F2" s="1">
         <x:v>1</x:v>
+      </x:c>
+      <x:c r="G2" s="1">
+        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -894,58 +934,64 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:E2"/>
+  <x:dimension ref="A1:F2"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E7" activeCellId="0" sqref="E7:E7"/>
+    <x:sheetView topLeftCell="A1" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E10" activeCellId="0" sqref="E10:E10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
   <x:cols>
-    <x:col min="1" max="1" width="4.046875" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="10.57421875" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="9.3359375" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="10.6875" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="13.046875" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="10.6875" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="7.3125" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="13.8671875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="15.05859375" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="17.30859375" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="16.4453125" style="1" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
-      <x:c r="A1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E1" t="s">
+      <x:c r="C1" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="1">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B2" s="1">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C2" s="1">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5">
-      <x:c r="A2">
+      <x:c r="D2" s="1">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E2" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F2" s="1">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="B2">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C2">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D2">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E2">
-        <x:v>2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/Assets/Resources/DataTable.xlsx
+++ b/Assets/Resources/DataTable.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11700" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11700" tabRatio="500" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="MonsterDataTable" sheetId="1" r:id="rId4"/>
@@ -864,7 +864,7 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:G2"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="180" zoomScaleNormal="180" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScale="180" zoomScaleNormal="180" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="C10" activeCellId="0" sqref="C10:C10"/>
     </x:sheetView>
   </x:sheetViews>
@@ -936,8 +936,8 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:F2"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E10" activeCellId="0" sqref="E10:E10"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B2" activeCellId="0" sqref="B2:B2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -975,7 +975,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B2" s="1">
-        <x:v>10</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C2" s="1">
         <x:v>1</x:v>

--- a/Assets/Resources/DataTable.xlsx
+++ b/Assets/Resources/DataTable.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11700" tabRatio="500" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11700" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="MonsterDataTable" sheetId="1" r:id="rId4"/>
@@ -17,40 +17,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <x:si>
+    <x:t>MaxHp::float</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">MaxMonsterCount::int </x:t>
   </x:si>
   <x:si>
+    <x:t>RequireExp4LvUp::int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SkillAttackRange::float</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hp::float</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GetExp::int</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">AttackPower::int </x:t>
+  </x:si>
+  <x:si>
+    <x:t>AttackRange::float</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">AttackRate::float </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">AttackRange::float </x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">SpawnTime::float </x:t>
   </x:si>
   <x:si>
     <x:t>AttackRate::float</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">AttackPower::int </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hp::float</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MaxHp::float</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GetExp::int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AttackRange::float</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">AttackRange::float </x:t>
-  </x:si>
-  <x:si>
-    <x:t>SkillAttackRange::float</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RequireExp4LvUp::int</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">AttackRate::float </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -210,7 +210,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -293,7 +292,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -328,7 +326,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -373,7 +370,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -417,7 +413,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -502,7 +497,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -523,7 +517,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -554,7 +547,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -864,8 +856,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:G2"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="180" zoomScaleNormal="180" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C10" activeCellId="0" sqref="C10:C10"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="180" zoomScaleNormal="180" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B11" activeCellId="0" sqref="B11:B11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -881,25 +873,25 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s">
+      <x:c r="C1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7">
@@ -936,7 +928,7 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:F2"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="B2" activeCellId="0" sqref="B2:B2"/>
     </x:sheetView>
   </x:sheetViews>
@@ -955,19 +947,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="F1" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
@@ -975,7 +967,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B2" s="1">
-        <x:v>100</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1">
         <x:v>1</x:v>

--- a/Assets/Resources/DataTable.xlsx
+++ b/Assets/Resources/DataTable.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11700" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11700" tabRatio="500" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="MonsterDataTable" sheetId="1" r:id="rId4"/>
@@ -17,40 +17,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <x:si>
+    <x:t>SkillAttackRange::float</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RequireExp4LvUp::int</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">MaxMonsterCount::int </x:t>
+  </x:si>
+  <x:si>
     <x:t>MaxHp::float</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">MaxMonsterCount::int </x:t>
-  </x:si>
-  <x:si>
-    <x:t>RequireExp4LvUp::int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SkillAttackRange::float</x:t>
+    <x:t>GetExp::int</x:t>
   </x:si>
   <x:si>
     <x:t>Hp::float</x:t>
   </x:si>
   <x:si>
-    <x:t>GetExp::int</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">AttackPower::int </x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">SpawnTime::float </x:t>
+  </x:si>
+  <x:si>
     <x:t>AttackRange::float</x:t>
   </x:si>
   <x:si>
+    <x:t>AttackRate::float</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">AttackRange::float </x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">AttackRate::float </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">AttackRange::float </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SpawnTime::float </x:t>
-  </x:si>
-  <x:si>
-    <x:t>AttackRate::float</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -856,7 +856,7 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:G2"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="180" zoomScaleNormal="180" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScale="180" zoomScaleNormal="180" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="B11" activeCellId="0" sqref="B11:B11"/>
     </x:sheetView>
   </x:sheetViews>
@@ -873,25 +873,25 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7">
@@ -928,7 +928,7 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:F2"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="B2" activeCellId="0" sqref="B2:B2"/>
     </x:sheetView>
   </x:sheetViews>
@@ -944,22 +944,22 @@
   <x:sheetData>
     <x:row r="1" spans="1:6">
       <x:c r="A1" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
@@ -967,7 +967,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B2" s="1">
-        <x:v>10</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C2" s="1">
         <x:v>1</x:v>
